--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\smart-subtitle-server-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCFC041-EBAA-431A-8EFD-1F686AC81B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DACB526-AFCD-4D94-B1A3-2520584B4067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{4DA894F9-DDBD-4834-BD39-ABE8A3AA0CF9}"/>
+    <workbookView xWindow="-35715" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{4DA894F9-DDBD-4834-BD39-ABE8A3AA0CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2372,7 +2372,7 @@
     <t>여러분~ 오늘도 마음껏 사랑하세요! 안녕~~</t>
   </si>
   <si>
-    <t>KO</t>
+    <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
